--- a/Results/Categorization/plsa-partial-ner-fasttext.xlsx
+++ b/Results/Categorization/plsa-partial-ner-fasttext.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1789">
   <si>
     <t>id</t>
   </si>
@@ -4036,7 +4036,7 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
@@ -4081,10 +4081,10 @@
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
@@ -4171,235 +4171,241 @@
     <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|||SERVICE|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES||SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|||SERVICE|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD|SERVICE</t>
+    <t>AMBIENCE|PRICES|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE|FOOD</t>
@@ -4414,6 +4420,9 @@
     <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|PRICES|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4432,7 +4441,7 @@
     <t>good|wine</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
   </si>
   <si>
     <t>rude</t>
@@ -4501,10 +4510,10 @@
     <t>nice|best|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>service|great|great|great|price|even|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>service|great|great|great|price|food|reasonable</t>
   </si>
   <si>
     <t>lava|cake|dessert</t>
@@ -4579,6 +4588,9 @@
     <t>service|great|pizza</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>place|food</t>
   </si>
   <si>
@@ -4624,7 +4636,7 @@
     <t>make</t>
   </si>
   <si>
-    <t>moules|ravioli</t>
+    <t>moules|lobster|ravioli</t>
   </si>
   <si>
     <t>price</t>
@@ -4657,9 +4669,6 @@
     <t>tuna|wasabe|potatoes</t>
   </si>
   <si>
-    <t>even|atmosphere</t>
-  </si>
-  <si>
     <t>service|great|great|food</t>
   </si>
   <si>
@@ -4672,7 +4681,7 @@
     <t>staff|best|wait</t>
   </si>
   <si>
-    <t>food|restaurant|best</t>
+    <t>food|restaurant|best|salad</t>
   </si>
   <si>
     <t>would|would</t>
@@ -4693,7 +4702,7 @@
     <t>though|restaurant</t>
   </si>
   <si>
-    <t>though|even|restaurant|always</t>
+    <t>though|restaurant|always</t>
   </si>
   <si>
     <t>good|though|food</t>
@@ -4702,6 +4711,9 @@
     <t>great|decor</t>
   </si>
   <si>
+    <t>atmosphere|salad</t>
+  </si>
+  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4717,13 +4729,16 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>roll|mayo</t>
+    <t>lobster|roll|mayo|lobster</t>
+  </si>
+  <si>
+    <t>pizza|salad</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>scallion|pancakes|dumplings|nothing</t>
+    <t>scallion|pancakes|dumplings</t>
   </si>
   <si>
     <t>service|good|restaurant</t>
@@ -4741,7 +4756,10 @@
     <t>food|restaurant|delicious</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>delicious|salad</t>
   </si>
   <si>
     <t>like|atmosphere</t>
@@ -4750,7 +4768,7 @@
     <t>good|though</t>
   </si>
   <si>
-    <t>great|though</t>
+    <t>great|though|salad</t>
   </si>
   <si>
     <t>good|really</t>
@@ -4777,222 +4795,225 @@
     <t>great|well</t>
   </si>
   <si>
+    <t>nice|salad</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>place|food|staff|delicious</t>
+  </si>
+  <si>
+    <t>even|make</t>
+  </si>
+  <si>
+    <t>service|good|food</t>
+  </si>
+  <si>
+    <t>service|service|good|good|food</t>
+  </si>
+  <si>
+    <t>place|wine|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>place|good|pizza|nice</t>
+  </si>
+  <si>
+    <t>though|delicious</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>place|nice</t>
+  </si>
+  <si>
+    <t>like|like</t>
+  </si>
+  <si>
+    <t>service|food|restaurant</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>place|good</t>
+  </si>
+  <si>
+    <t>place|service|pizza|wine|really</t>
+  </si>
+  <si>
+    <t>price|restaurant|wine|menu</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>service|price|would</t>
+  </si>
+  <si>
+    <t>food|make</t>
+  </si>
+  <si>
+    <t>meals|bland|rosemary|orange|flavoring</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|nice|staff|would|wait|never</t>
+  </si>
+  <si>
+    <t>someone|dessert</t>
+  </si>
+  <si>
+    <t>service|never|delicious</t>
+  </si>
+  <si>
+    <t>tuna|tartar|appetizer</t>
+  </si>
+  <si>
+    <t>place|service</t>
+  </si>
+  <si>
+    <t>service|great|great|food|restaurant|atmosphere</t>
+  </si>
+  <si>
+    <t>dining|room|music</t>
+  </si>
+  <si>
+    <t>service|staff|menu</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>place|service|great|special</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
+  </si>
+  <si>
+    <t>really|make</t>
+  </si>
+  <si>
+    <t>service|though|food|wait</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>service|great|nice</t>
+  </si>
+  <si>
+    <t>like|atmosphere|special</t>
+  </si>
+  <si>
+    <t>staff|well</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>price|food|wine</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|staff</t>
+  </si>
+  <si>
+    <t>service|great|always</t>
+  </si>
+  <si>
+    <t>rude|wait</t>
+  </si>
+  <si>
+    <t>place|service|price|price|food|like|make|worth</t>
+  </si>
+  <si>
+    <t>best|dish</t>
+  </si>
+  <si>
+    <t>service|though|nice|decor</t>
+  </si>
+  <si>
+    <t>though|nice|staff|wait</t>
+  </si>
+  <si>
+    <t>service|rude</t>
+  </si>
+  <si>
+    <t>rude|restaurant</t>
+  </si>
+  <si>
+    <t>seats|wall|benches</t>
+  </si>
+  <si>
+    <t>great|nice|staff</t>
+  </si>
+  <si>
+    <t>friendly|staff|wait</t>
+  </si>
+  <si>
+    <t>service|good|good</t>
+  </si>
+  <si>
+    <t>price|restaurant</t>
+  </si>
+  <si>
+    <t>good|price|though|even|food</t>
+  </si>
+  <si>
+    <t>good|price|though</t>
+  </si>
+  <si>
+    <t>special|wait</t>
+  </si>
+  <si>
+    <t>food|nice|wait</t>
+  </si>
+  <si>
+    <t>price|wine</t>
+  </si>
+  <si>
+    <t>great|atmosphere|would</t>
+  </si>
+  <si>
+    <t>place|great|great|good|food</t>
+  </si>
+  <si>
+    <t>staff|like|make|wait</t>
+  </si>
+  <si>
+    <t>service|wait</t>
+  </si>
+  <si>
+    <t>good|wait|wait</t>
+  </si>
+  <si>
+    <t>place|great|good|staff|would</t>
+  </si>
+  <si>
+    <t>great|price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>great|price|food</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>place|food|staff|delicious</t>
-  </si>
-  <si>
-    <t>even|make</t>
-  </si>
-  <si>
-    <t>service|good|food</t>
-  </si>
-  <si>
-    <t>service|service|good|good|food</t>
-  </si>
-  <si>
-    <t>place|wine|atmosphere|dish</t>
-  </si>
-  <si>
-    <t>place|good|pizza|nice</t>
-  </si>
-  <si>
-    <t>though|delicious</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>place|nice</t>
-  </si>
-  <si>
-    <t>like|like</t>
-  </si>
-  <si>
-    <t>service|food|restaurant</t>
-  </si>
-  <si>
-    <t>menu|dish</t>
-  </si>
-  <si>
-    <t>place|good</t>
-  </si>
-  <si>
-    <t>place|service|pizza|wine|really</t>
-  </si>
-  <si>
-    <t>price|restaurant|wine|menu</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>food|make</t>
-  </si>
-  <si>
-    <t>meals|bland|rosemary|orange|flavoring</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|nice|staff|would|wait|never</t>
-  </si>
-  <si>
-    <t>someone|dessert</t>
-  </si>
-  <si>
-    <t>service|never|delicious</t>
-  </si>
-  <si>
-    <t>tuna|tartar|appetizer</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>service|great|great|food|restaurant|atmosphere</t>
-  </si>
-  <si>
-    <t>dining|room|music</t>
-  </si>
-  <si>
-    <t>service|staff|menu</t>
-  </si>
-  <si>
-    <t>service|staff</t>
-  </si>
-  <si>
-    <t>place|service|great|special</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like|menu</t>
-  </si>
-  <si>
-    <t>really|make</t>
-  </si>
-  <si>
-    <t>service|though|food|wait</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>service|great|nice</t>
-  </si>
-  <si>
-    <t>like|atmosphere|special</t>
-  </si>
-  <si>
-    <t>staff|well</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|staff</t>
-  </si>
-  <si>
-    <t>service|great|always</t>
-  </si>
-  <si>
-    <t>rude|wait</t>
-  </si>
-  <si>
-    <t>place|service|price|price|food|like|make|worth</t>
-  </si>
-  <si>
-    <t>best|dish</t>
-  </si>
-  <si>
-    <t>service|though|nice|decor</t>
-  </si>
-  <si>
-    <t>though|nice|staff|wait</t>
-  </si>
-  <si>
-    <t>service|rude</t>
-  </si>
-  <si>
-    <t>rude|restaurant</t>
-  </si>
-  <si>
-    <t>seats|wall|benches</t>
-  </si>
-  <si>
-    <t>great|nice|staff</t>
-  </si>
-  <si>
-    <t>friendly|staff|wait</t>
-  </si>
-  <si>
-    <t>service|good|good</t>
-  </si>
-  <si>
-    <t>price|restaurant</t>
-  </si>
-  <si>
-    <t>good|price|though|even|food</t>
-  </si>
-  <si>
-    <t>good|price|though</t>
-  </si>
-  <si>
-    <t>special|wait</t>
-  </si>
-  <si>
-    <t>food|nice|wait</t>
-  </si>
-  <si>
-    <t>price|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|would</t>
-  </si>
-  <si>
-    <t>place|great|great|good|food</t>
-  </si>
-  <si>
-    <t>staff|like|make|wait</t>
-  </si>
-  <si>
-    <t>service|wait</t>
-  </si>
-  <si>
-    <t>good|wait|wait</t>
-  </si>
-  <si>
-    <t>place|great|good|staff|would</t>
-  </si>
-  <si>
-    <t>great|price|food|really</t>
-  </si>
-  <si>
-    <t>service|restaurant</t>
-  </si>
-  <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
@@ -5026,7 +5047,7 @@
     <t>place|price|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|even|well</t>
@@ -5107,7 +5128,7 @@
     <t>good|atmosphere</t>
   </si>
   <si>
-    <t>jukebox|everything|opera|strokes</t>
+    <t>jukebox|opera|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5116,7 +5137,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>great|price|food|reasonable</t>
@@ -5125,7 +5146,7 @@
     <t>good|price|food</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|great|good|price|food</t>
@@ -5209,7 +5230,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -5242,7 +5263,7 @@
     <t>service|rude|even|well</t>
   </si>
   <si>
-    <t>service|great|good</t>
+    <t>service|great|good|salad</t>
   </si>
   <si>
     <t>good|price|food|would</t>
@@ -5252,6 +5273,9 @@
   </si>
   <si>
     <t>place|price</t>
+  </si>
+  <si>
+    <t>price|salad</t>
   </si>
   <si>
     <t>negative</t>
@@ -5763,10 +5787,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="H2" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5792,7 +5816,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5815,10 +5839,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H4" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5841,10 +5865,10 @@
         <v>1276</v>
       </c>
       <c r="G5" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H5" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5867,10 +5891,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H6" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5893,10 +5917,10 @@
         <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H7" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5919,10 +5943,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H8" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5945,10 +5969,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H9" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5971,10 +5995,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H10" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5997,10 +6021,10 @@
         <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H11" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6026,7 +6050,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6049,10 +6073,10 @@
         <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H13" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6075,10 +6099,10 @@
         <v>1343</v>
       </c>
       <c r="G14" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H14" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6101,10 +6125,10 @@
         <v>1344</v>
       </c>
       <c r="G15" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H15" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6127,10 +6151,10 @@
         <v>1345</v>
       </c>
       <c r="G16" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="H16" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6153,10 +6177,10 @@
         <v>1346</v>
       </c>
       <c r="G17" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H17" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6179,10 +6203,10 @@
         <v>1347</v>
       </c>
       <c r="G18" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H18" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6205,7 +6229,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6228,10 +6252,10 @@
         <v>1348</v>
       </c>
       <c r="G20" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H20" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6257,7 +6281,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6283,7 +6307,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6306,10 +6330,10 @@
         <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H23" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6332,10 +6356,10 @@
         <v>1346</v>
       </c>
       <c r="G24" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H24" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6361,7 +6385,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6387,7 +6411,7 @@
         <v>968</v>
       </c>
       <c r="H26" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6413,7 +6437,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6433,10 +6457,10 @@
         <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H28" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6459,10 +6483,10 @@
         <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H29" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6485,10 +6509,10 @@
         <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="H30" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6511,10 +6535,10 @@
         <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="H31" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6540,7 +6564,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6563,10 +6587,10 @@
         <v>1346</v>
       </c>
       <c r="G33" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H33" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6589,10 +6613,10 @@
         <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H34" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6615,10 +6639,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H35" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6641,10 +6665,10 @@
         <v>1347</v>
       </c>
       <c r="G36" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="H36" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6667,10 +6691,10 @@
         <v>1276</v>
       </c>
       <c r="G37" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H37" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6693,10 +6717,10 @@
         <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H38" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6719,10 +6743,10 @@
         <v>1349</v>
       </c>
       <c r="G39" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H39" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6745,10 +6769,10 @@
         <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="H40" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6771,10 +6795,10 @@
         <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H41" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6797,10 +6821,10 @@
         <v>1357</v>
       </c>
       <c r="G42" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H42" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6823,10 +6847,10 @@
         <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="H43" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6852,7 +6876,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6878,7 +6902,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6904,7 +6928,7 @@
         <v>933</v>
       </c>
       <c r="H46" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6927,10 +6951,10 @@
         <v>1354</v>
       </c>
       <c r="G47" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="H47" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6953,10 +6977,10 @@
         <v>1359</v>
       </c>
       <c r="G48" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="H48" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6979,10 +7003,10 @@
         <v>1360</v>
       </c>
       <c r="G49" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H49" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7005,10 +7029,10 @@
         <v>1285</v>
       </c>
       <c r="G50" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H50" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7031,10 +7055,10 @@
         <v>1361</v>
       </c>
       <c r="G51" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="H51" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7057,10 +7081,10 @@
         <v>1362</v>
       </c>
       <c r="G52" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H52" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7083,10 +7107,10 @@
         <v>1343</v>
       </c>
       <c r="G53" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H53" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7109,10 +7133,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H54" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7135,10 +7159,10 @@
         <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H55" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7161,10 +7185,10 @@
         <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H56" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7187,10 +7211,10 @@
         <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H57" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7213,10 +7237,10 @@
         <v>1366</v>
       </c>
       <c r="G58" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="H58" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7239,10 +7263,10 @@
         <v>1367</v>
       </c>
       <c r="G59" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H59" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7265,10 +7289,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H60" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7294,7 +7318,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7317,10 +7341,10 @@
         <v>1368</v>
       </c>
       <c r="G62" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H62" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7343,10 +7367,10 @@
         <v>1348</v>
       </c>
       <c r="G63" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H63" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7369,10 +7393,10 @@
         <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H64" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7395,10 +7419,10 @@
         <v>1347</v>
       </c>
       <c r="G65" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H65" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7421,10 +7445,10 @@
         <v>1348</v>
       </c>
       <c r="G66" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="H66" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7447,10 +7471,10 @@
         <v>1354</v>
       </c>
       <c r="G67" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="H67" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7476,7 +7500,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7499,10 +7523,10 @@
         <v>1294</v>
       </c>
       <c r="G69" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H69" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7525,10 +7549,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H70" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7554,7 +7578,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7577,10 +7601,10 @@
         <v>1370</v>
       </c>
       <c r="G72" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H72" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7603,10 +7627,10 @@
         <v>1371</v>
       </c>
       <c r="G73" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H73" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7629,10 +7653,10 @@
         <v>1372</v>
       </c>
       <c r="G74" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="H74" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7658,7 +7682,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7678,13 +7702,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1524</v>
       </c>
       <c r="H76" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7707,10 +7731,10 @@
         <v>1285</v>
       </c>
       <c r="G77" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H77" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7733,10 +7757,10 @@
         <v>1346</v>
       </c>
       <c r="G78" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H78" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7759,10 +7783,10 @@
         <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="H79" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7785,10 +7809,10 @@
         <v>1373</v>
       </c>
       <c r="G80" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="H80" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7811,10 +7835,10 @@
         <v>1374</v>
       </c>
       <c r="G81" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="H81" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7837,10 +7861,10 @@
         <v>1375</v>
       </c>
       <c r="G82" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="H82" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7866,7 +7890,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7892,7 +7916,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7915,10 +7939,10 @@
         <v>1278</v>
       </c>
       <c r="G85" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H85" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7941,10 +7965,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="H86" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7967,10 +7991,10 @@
         <v>1339</v>
       </c>
       <c r="G87" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="H87" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7993,10 +8017,10 @@
         <v>1376</v>
       </c>
       <c r="G88" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H88" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8019,10 +8043,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H89" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8048,7 +8072,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8071,10 +8095,10 @@
         <v>1377</v>
       </c>
       <c r="G91" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="H91" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8097,10 +8121,10 @@
         <v>1378</v>
       </c>
       <c r="G92" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="H92" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8123,10 +8147,10 @@
         <v>1360</v>
       </c>
       <c r="G93" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="H93" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8149,10 +8173,10 @@
         <v>1379</v>
       </c>
       <c r="G94" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="H94" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8175,10 +8199,10 @@
         <v>1372</v>
       </c>
       <c r="G95" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="H95" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8201,10 +8225,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="H96" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8224,13 +8248,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="G97" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="H97" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8253,10 +8277,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H98" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8279,10 +8303,10 @@
         <v>1294</v>
       </c>
       <c r="G99" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H99" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8305,10 +8329,10 @@
         <v>1380</v>
       </c>
       <c r="G100" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="H100" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8331,10 +8355,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H101" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8357,10 +8381,10 @@
         <v>1370</v>
       </c>
       <c r="G102" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="H102" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8386,7 +8410,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8409,10 +8433,10 @@
         <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="H104" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8438,7 +8462,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8461,10 +8485,10 @@
         <v>1381</v>
       </c>
       <c r="G106" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="H106" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8487,10 +8511,10 @@
         <v>1370</v>
       </c>
       <c r="G107" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="H107" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8513,10 +8537,10 @@
         <v>1382</v>
       </c>
       <c r="G108" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="H108" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8536,10 +8560,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H109" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8562,10 +8586,10 @@
         <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="H110" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8588,10 +8612,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="H111" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8614,10 +8638,10 @@
         <v>1383</v>
       </c>
       <c r="G112" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="H112" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8637,13 +8661,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1354</v>
+        <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>1547</v>
+        <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8669,7 +8693,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8692,10 +8716,10 @@
         <v>1384</v>
       </c>
       <c r="G115" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H115" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8718,10 +8742,10 @@
         <v>1357</v>
       </c>
       <c r="G116" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H116" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8744,10 +8768,10 @@
         <v>1373</v>
       </c>
       <c r="G117" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H117" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8770,10 +8794,10 @@
         <v>1371</v>
       </c>
       <c r="G118" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="H118" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8796,10 +8820,10 @@
         <v>1385</v>
       </c>
       <c r="G119" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="H119" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8825,7 +8849,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8851,7 +8875,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8877,7 +8901,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8903,7 +8927,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8926,10 +8950,10 @@
         <v>1348</v>
       </c>
       <c r="G124" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="H124" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8952,10 +8976,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="H125" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8981,7 +9005,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9004,10 +9028,10 @@
         <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H127" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9030,10 +9054,10 @@
         <v>1376</v>
       </c>
       <c r="G128" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H128" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9056,10 +9080,10 @@
         <v>1386</v>
       </c>
       <c r="G129" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="H129" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9082,10 +9106,10 @@
         <v>1357</v>
       </c>
       <c r="G130" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="H130" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9108,10 +9132,10 @@
         <v>1387</v>
       </c>
       <c r="G131" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="H131" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9131,13 +9155,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="G132" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="H132" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9157,13 +9181,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G133" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="H133" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9186,10 +9210,10 @@
         <v>1343</v>
       </c>
       <c r="G134" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H134" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9209,13 +9233,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="G135" t="s">
-        <v>1065</v>
+        <v>1565</v>
       </c>
       <c r="H135" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9238,10 +9262,10 @@
         <v>1285</v>
       </c>
       <c r="G136" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H136" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9264,10 +9288,10 @@
         <v>1357</v>
       </c>
       <c r="G137" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="H137" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9290,10 +9314,10 @@
         <v>1354</v>
       </c>
       <c r="G138" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="H138" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9316,10 +9340,10 @@
         <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="H139" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9342,10 +9366,10 @@
         <v>1357</v>
       </c>
       <c r="G140" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="H140" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9371,7 +9395,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9391,13 +9415,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G142" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="H142" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9420,10 +9444,10 @@
         <v>1376</v>
       </c>
       <c r="G143" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H143" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9443,13 +9467,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1339</v>
+        <v>1391</v>
       </c>
       <c r="G144" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="H144" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9469,13 +9493,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G145" t="s">
-        <v>989</v>
+        <v>1572</v>
       </c>
       <c r="H145" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9498,10 +9522,10 @@
         <v>1376</v>
       </c>
       <c r="G146" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H146" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9527,7 +9551,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9550,10 +9574,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H148" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9573,13 +9597,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1390</v>
+        <v>1357</v>
       </c>
       <c r="G149" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H149" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9599,13 +9623,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G150" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H150" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9625,13 +9649,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G151" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="H151" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9654,10 +9678,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H152" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9677,13 +9701,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G153" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="H153" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9703,13 +9727,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G154" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="H154" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9729,13 +9753,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="H155" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9755,13 +9779,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1572</v>
+        <v>1581</v>
       </c>
       <c r="H156" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9784,10 +9808,10 @@
         <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H157" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9810,10 +9834,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H158" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9836,10 +9860,10 @@
         <v>1343</v>
       </c>
       <c r="G159" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="H159" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9862,10 +9886,10 @@
         <v>1354</v>
       </c>
       <c r="G160" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="H160" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9884,8 +9908,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9905,13 +9935,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1343</v>
+        <v>1379</v>
       </c>
       <c r="G162" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="H162" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9937,7 +9967,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9960,10 +9990,10 @@
         <v>1354</v>
       </c>
       <c r="G164" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="H164" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9983,13 +10013,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G165" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="H165" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10012,10 +10042,10 @@
         <v>1354</v>
       </c>
       <c r="G166" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="H166" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10038,10 +10068,10 @@
         <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="H167" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10061,13 +10091,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G168" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="H168" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10090,10 +10120,10 @@
         <v>1387</v>
       </c>
       <c r="G169" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="H169" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10113,13 +10143,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G170" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="H170" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10142,10 +10172,10 @@
         <v>1343</v>
       </c>
       <c r="G171" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="H171" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10165,13 +10195,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="G172" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="H172" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10194,10 +10224,10 @@
         <v>1278</v>
       </c>
       <c r="G173" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="H173" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10220,10 +10250,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H174" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10243,13 +10273,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G175" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="H175" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10272,10 +10302,10 @@
         <v>1343</v>
       </c>
       <c r="G176" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="H176" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10295,13 +10325,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G177" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="H177" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10321,13 +10351,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G178" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="H178" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10347,13 +10377,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G179" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="H179" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10373,13 +10403,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G180" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="H180" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10402,10 +10432,10 @@
         <v>1346</v>
       </c>
       <c r="G181" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="H181" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10431,7 +10461,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10454,10 +10484,10 @@
         <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H183" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10477,13 +10507,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="H184" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10506,10 +10536,10 @@
         <v>1348</v>
       </c>
       <c r="G185" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H185" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10532,10 +10562,10 @@
         <v>1343</v>
       </c>
       <c r="G186" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="H186" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10558,10 +10588,10 @@
         <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="H187" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10587,7 +10617,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10613,7 +10643,7 @@
         <v>947</v>
       </c>
       <c r="H189" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10639,7 +10669,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10662,10 +10692,10 @@
         <v>1343</v>
       </c>
       <c r="G191" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="H191" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10688,10 +10718,10 @@
         <v>1347</v>
       </c>
       <c r="G192" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H192" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10711,13 +10741,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G193" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="H193" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10740,10 +10770,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="H194" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10769,7 +10799,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10792,10 +10822,10 @@
         <v>1285</v>
       </c>
       <c r="G196" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H196" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10821,7 +10851,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10841,7 +10871,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10864,10 +10894,10 @@
         <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="H199" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10890,10 +10920,10 @@
         <v>1346</v>
       </c>
       <c r="G200" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="H200" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10916,10 +10946,10 @@
         <v>1346</v>
       </c>
       <c r="G201" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="H201" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10939,13 +10969,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G202" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="H202" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10971,7 +11001,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10991,13 +11021,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G204" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="H204" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11020,10 +11050,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="H205" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11043,13 +11073,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G206" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="H206" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11075,7 +11105,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11098,10 +11128,10 @@
         <v>1354</v>
       </c>
       <c r="G208" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="H208" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11121,13 +11151,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G209" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="H209" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11150,10 +11180,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="H210" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11173,13 +11203,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G211" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="H211" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11202,10 +11232,10 @@
         <v>1376</v>
       </c>
       <c r="G212" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="H212" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11228,10 +11258,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H213" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11254,10 +11284,10 @@
         <v>1372</v>
       </c>
       <c r="G214" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="H214" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11280,10 +11310,10 @@
         <v>1357</v>
       </c>
       <c r="G215" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="H215" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11309,7 +11339,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11332,10 +11362,10 @@
         <v>1387</v>
       </c>
       <c r="G217" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="H217" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11355,13 +11385,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G218" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="H218" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11381,13 +11411,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G219" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="H219" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11407,13 +11437,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G220" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="H220" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11439,7 +11469,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11462,10 +11492,10 @@
         <v>1348</v>
       </c>
       <c r="G222" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="H222" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11485,13 +11515,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G223" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="H223" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11511,13 +11541,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G224" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="H224" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11543,7 +11573,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11569,7 +11599,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11595,7 +11625,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11618,10 +11648,10 @@
         <v>1343</v>
       </c>
       <c r="G228" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="H228" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11641,13 +11671,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G229" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="H229" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11670,10 +11700,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H230" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11699,7 +11729,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11722,10 +11752,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="H232" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11748,10 +11778,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H233" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11771,13 +11801,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G234" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="H234" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11797,13 +11827,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G235" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="H235" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11826,10 +11856,10 @@
         <v>1379</v>
       </c>
       <c r="G236" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="H236" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11852,10 +11882,10 @@
         <v>1347</v>
       </c>
       <c r="G237" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="H237" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11875,13 +11905,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G238" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="H238" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11907,7 +11937,7 @@
         <v>968</v>
       </c>
       <c r="H239" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11927,13 +11957,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G240" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="H240" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11956,10 +11986,10 @@
         <v>1343</v>
       </c>
       <c r="G241" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="H241" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11982,10 +12012,10 @@
         <v>1376</v>
       </c>
       <c r="G242" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="H242" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12008,10 +12038,10 @@
         <v>1348</v>
       </c>
       <c r="G243" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H243" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12034,10 +12064,10 @@
         <v>1387</v>
       </c>
       <c r="G244" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="H244" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12060,10 +12090,10 @@
         <v>1371</v>
       </c>
       <c r="G245" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="H245" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12089,7 +12119,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12112,10 +12142,10 @@
         <v>1348</v>
       </c>
       <c r="G247" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="H247" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12141,7 +12171,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12161,13 +12191,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G249" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="H249" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12190,10 +12220,10 @@
         <v>1346</v>
       </c>
       <c r="G250" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="H250" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12213,13 +12243,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G251" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="H251" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12239,13 +12269,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G252" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="H252" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12268,10 +12298,10 @@
         <v>1348</v>
       </c>
       <c r="G253" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="H253" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12297,7 +12327,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12320,10 +12350,10 @@
         <v>1348</v>
       </c>
       <c r="G255" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="H255" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12346,10 +12376,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H256" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12372,10 +12402,10 @@
         <v>1346</v>
       </c>
       <c r="G257" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H257" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12398,10 +12428,10 @@
         <v>1285</v>
       </c>
       <c r="G258" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H258" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12427,7 +12457,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12450,10 +12480,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H260" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12473,13 +12503,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G261" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="H261" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12505,7 +12535,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12528,10 +12558,10 @@
         <v>1349</v>
       </c>
       <c r="G263" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="H263" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12551,13 +12581,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G264" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="H264" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12577,13 +12607,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G265" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="H265" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12603,13 +12633,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G266" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="H266" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12629,13 +12659,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="G267" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="H267" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12655,13 +12685,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G268" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="H268" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12684,10 +12714,10 @@
         <v>1370</v>
       </c>
       <c r="G269" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="H269" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12713,7 +12743,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12733,13 +12763,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G271" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="H271" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12762,10 +12792,10 @@
         <v>1285</v>
       </c>
       <c r="G272" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H272" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12788,10 +12818,10 @@
         <v>1359</v>
       </c>
       <c r="G273" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="H273" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12814,10 +12844,10 @@
         <v>1349</v>
       </c>
       <c r="G274" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="H274" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12837,13 +12867,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G275" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="H275" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12863,13 +12893,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G276" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="H276" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12892,10 +12922,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H277" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12918,10 +12948,10 @@
         <v>1348</v>
       </c>
       <c r="G278" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="H278" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12941,13 +12971,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G279" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="H279" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12973,7 +13003,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12996,7 +13026,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13016,13 +13046,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G282" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="H282" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13048,7 +13078,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13068,13 +13098,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G284" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="H284" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13097,10 +13127,10 @@
         <v>1348</v>
       </c>
       <c r="G285" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="H285" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13120,13 +13150,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G286" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="H286" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13146,13 +13176,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G287" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="H287" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13175,10 +13205,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="H288" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13201,10 +13231,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1587</v>
+        <v>1665</v>
       </c>
       <c r="H289" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13224,13 +13254,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G290" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="H290" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13253,10 +13283,10 @@
         <v>1348</v>
       </c>
       <c r="G291" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="H291" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13279,10 +13309,10 @@
         <v>1348</v>
       </c>
       <c r="G292" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="H292" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13302,13 +13332,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G293" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="H293" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13331,10 +13361,10 @@
         <v>1343</v>
       </c>
       <c r="G294" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="H294" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13360,7 +13390,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13383,10 +13413,10 @@
         <v>1376</v>
       </c>
       <c r="G296" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H296" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13406,13 +13436,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G297" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="H297" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13435,10 +13465,10 @@
         <v>1343</v>
       </c>
       <c r="G298" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
       <c r="H298" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13464,7 +13494,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13487,10 +13517,10 @@
         <v>1387</v>
       </c>
       <c r="G300" t="s">
-        <v>1665</v>
+        <v>1672</v>
       </c>
       <c r="H300" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13510,13 +13540,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G301" t="s">
-        <v>1666</v>
+        <v>1673</v>
       </c>
       <c r="H301" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13536,13 +13566,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G302" t="s">
-        <v>1667</v>
+        <v>1674</v>
       </c>
       <c r="H302" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13568,7 +13598,7 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13594,7 +13624,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13620,7 +13650,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13643,10 +13673,10 @@
         <v>1348</v>
       </c>
       <c r="G306" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="H306" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13672,7 +13702,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13695,10 +13725,10 @@
         <v>1294</v>
       </c>
       <c r="G308" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H308" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13724,7 +13754,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13750,7 +13780,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13776,7 +13806,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13799,10 +13829,10 @@
         <v>1343</v>
       </c>
       <c r="G312" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="H312" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13828,7 +13858,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13854,7 +13884,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13874,13 +13904,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="G315" t="s">
-        <v>1669</v>
+        <v>1676</v>
       </c>
       <c r="H315" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13900,13 +13930,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G316" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="H316" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13929,10 +13959,10 @@
         <v>1376</v>
       </c>
       <c r="G317" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H317" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13955,10 +13985,10 @@
         <v>1346</v>
       </c>
       <c r="G318" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H318" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13977,8 +14007,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13998,13 +14034,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G320" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="H320" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14027,10 +14063,10 @@
         <v>1343</v>
       </c>
       <c r="G321" t="s">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="H321" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14050,13 +14086,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G322" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="H322" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14079,10 +14115,10 @@
         <v>1347</v>
       </c>
       <c r="G323" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="H323" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14105,10 +14141,10 @@
         <v>1359</v>
       </c>
       <c r="G324" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="H324" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14134,7 +14170,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14160,7 +14196,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14183,10 +14219,10 @@
         <v>1348</v>
       </c>
       <c r="G327" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="H327" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14209,10 +14245,10 @@
         <v>1343</v>
       </c>
       <c r="G328" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="H328" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14235,10 +14271,10 @@
         <v>1343</v>
       </c>
       <c r="G329" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
       <c r="H329" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14261,10 +14297,10 @@
         <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H330" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14284,13 +14320,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G331" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="H331" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14313,10 +14349,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H332" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14339,10 +14375,10 @@
         <v>1348</v>
       </c>
       <c r="G333" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
       <c r="H333" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14368,7 +14404,7 @@
         <v>1180</v>
       </c>
       <c r="H334" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14391,10 +14427,10 @@
         <v>1350</v>
       </c>
       <c r="G335" t="s">
-        <v>1680</v>
+        <v>1687</v>
       </c>
       <c r="H335" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14417,10 +14453,10 @@
         <v>1349</v>
       </c>
       <c r="G336" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="H336" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14443,10 +14479,10 @@
         <v>1342</v>
       </c>
       <c r="G337" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
       <c r="H337" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14466,13 +14502,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G338" t="s">
-        <v>1683</v>
+        <v>1690</v>
       </c>
       <c r="H338" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14492,13 +14528,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1441</v>
+        <v>1388</v>
       </c>
       <c r="G339" t="s">
-        <v>1684</v>
+        <v>1691</v>
       </c>
       <c r="H339" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14521,10 +14557,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1685</v>
+        <v>1692</v>
       </c>
       <c r="H340" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14544,13 +14580,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G341" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
       <c r="H341" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14573,10 +14609,10 @@
         <v>1348</v>
       </c>
       <c r="G342" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H342" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14599,10 +14635,10 @@
         <v>1442</v>
       </c>
       <c r="G343" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="H343" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14625,10 +14661,10 @@
         <v>1443</v>
       </c>
       <c r="G344" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
       <c r="H344" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14651,10 +14687,10 @@
         <v>1346</v>
       </c>
       <c r="G345" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="H345" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14677,10 +14713,10 @@
         <v>1444</v>
       </c>
       <c r="G346" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="H346" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14706,7 +14742,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14732,7 +14768,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14758,7 +14794,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14781,10 +14817,10 @@
         <v>1348</v>
       </c>
       <c r="G350" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H350" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14807,10 +14843,10 @@
         <v>1359</v>
       </c>
       <c r="G351" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="H351" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14833,10 +14869,10 @@
         <v>1445</v>
       </c>
       <c r="G352" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="H352" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14862,7 +14898,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14888,7 +14924,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14911,10 +14947,10 @@
         <v>1387</v>
       </c>
       <c r="G355" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="H355" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14940,7 +14976,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14963,10 +14999,10 @@
         <v>1446</v>
       </c>
       <c r="G357" t="s">
-        <v>1692</v>
+        <v>1699</v>
       </c>
       <c r="H357" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14989,10 +15025,10 @@
         <v>1348</v>
       </c>
       <c r="G358" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H358" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15015,10 +15051,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="H359" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15044,7 +15080,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15067,10 +15103,10 @@
         <v>1346</v>
       </c>
       <c r="G361" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H361" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15093,10 +15129,10 @@
         <v>1276</v>
       </c>
       <c r="G362" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="H362" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15119,10 +15155,10 @@
         <v>1447</v>
       </c>
       <c r="G363" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="H363" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15145,10 +15181,10 @@
         <v>1448</v>
       </c>
       <c r="G364" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="H364" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15171,10 +15207,10 @@
         <v>1449</v>
       </c>
       <c r="G365" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="H365" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15197,10 +15233,10 @@
         <v>1343</v>
       </c>
       <c r="G366" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="H366" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15223,10 +15259,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="H367" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15249,10 +15285,10 @@
         <v>1354</v>
       </c>
       <c r="G368" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="H368" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15275,10 +15311,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H369" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15301,10 +15337,10 @@
         <v>1450</v>
       </c>
       <c r="G370" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="H370" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15327,10 +15363,10 @@
         <v>1352</v>
       </c>
       <c r="G371" t="s">
-        <v>1698</v>
+        <v>1705</v>
       </c>
       <c r="H371" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15350,13 +15386,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G372" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="H372" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15376,13 +15412,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="G373" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="H373" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15402,7 +15438,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15428,7 +15464,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15451,10 +15487,10 @@
         <v>1451</v>
       </c>
       <c r="G376" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
       <c r="H376" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15477,10 +15513,10 @@
         <v>1452</v>
       </c>
       <c r="G377" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="H377" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15500,13 +15536,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1354</v>
+        <v>1453</v>
       </c>
       <c r="G378" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
       <c r="H378" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15526,13 +15562,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G379" t="s">
-        <v>1704</v>
+        <v>1711</v>
       </c>
       <c r="H379" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15555,10 +15591,10 @@
         <v>1343</v>
       </c>
       <c r="G380" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="H380" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15581,10 +15617,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H381" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15604,13 +15640,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G382" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="H382" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15630,13 +15666,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G383" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="H383" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15656,13 +15692,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G384" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="H384" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15685,10 +15721,10 @@
         <v>1359</v>
       </c>
       <c r="G385" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="H385" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15708,13 +15744,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G386" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="H386" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15740,7 +15776,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15763,10 +15799,10 @@
         <v>1343</v>
       </c>
       <c r="G388" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="H388" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15789,10 +15825,10 @@
         <v>1343</v>
       </c>
       <c r="G389" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="H389" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15815,10 +15851,10 @@
         <v>1294</v>
       </c>
       <c r="G390" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H390" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15841,10 +15877,10 @@
         <v>1347</v>
       </c>
       <c r="G391" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="H391" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15867,10 +15903,10 @@
         <v>1285</v>
       </c>
       <c r="G392" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H392" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15893,10 +15929,10 @@
         <v>1354</v>
       </c>
       <c r="G393" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="H393" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15916,13 +15952,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G394" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="H394" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15945,10 +15981,10 @@
         <v>1379</v>
       </c>
       <c r="G395" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="H395" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15971,10 +16007,10 @@
         <v>1343</v>
       </c>
       <c r="G396" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="H396" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15994,13 +16030,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G397" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="H397" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16026,7 +16062,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16046,13 +16082,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G399" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="H399" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16072,13 +16108,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G400" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="H400" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16104,7 +16140,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16130,7 +16166,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16153,10 +16189,10 @@
         <v>1343</v>
       </c>
       <c r="G403" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="H403" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16179,10 +16215,10 @@
         <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="H404" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16205,10 +16241,10 @@
         <v>1362</v>
       </c>
       <c r="G405" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="H405" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16234,7 +16270,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16254,13 +16290,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G407" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="H407" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16283,10 +16319,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1587</v>
+        <v>1665</v>
       </c>
       <c r="H408" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16312,7 +16348,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16338,7 +16374,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16358,13 +16394,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G411" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="H411" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16387,10 +16423,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H412" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16413,10 +16449,10 @@
         <v>1359</v>
       </c>
       <c r="G413" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="H413" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16439,10 +16475,10 @@
         <v>1452</v>
       </c>
       <c r="G414" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="H414" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16462,13 +16498,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G415" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="H415" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16488,10 +16524,10 @@
         <v>1285</v>
       </c>
       <c r="G416" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="H416" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16514,10 +16550,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="H417" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16537,13 +16573,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1385</v>
+        <v>1461</v>
       </c>
       <c r="G418" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="H418" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16566,10 +16602,10 @@
         <v>1359</v>
       </c>
       <c r="G419" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="H419" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16592,10 +16628,10 @@
         <v>1338</v>
       </c>
       <c r="G420" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="H420" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16615,13 +16651,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G421" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="H421" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16644,10 +16680,10 @@
         <v>1359</v>
       </c>
       <c r="G422" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="H422" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16673,7 +16709,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16699,7 +16735,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16719,13 +16755,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G425" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="H425" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16745,13 +16781,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G426" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="H426" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16774,7 +16810,7 @@
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16797,10 +16833,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="H428" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16820,7 +16856,7 @@
         <v>1285</v>
       </c>
       <c r="H429" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16843,10 +16879,10 @@
         <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="H430" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16869,10 +16905,10 @@
         <v>1343</v>
       </c>
       <c r="G431" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="H431" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16898,7 +16934,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16918,13 +16954,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="G433" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="H433" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16947,10 +16983,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="H434" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16970,13 +17006,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="G435" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="H435" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17002,7 +17038,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17022,7 +17058,7 @@
         <v>1294</v>
       </c>
       <c r="H437" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17048,7 +17084,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17071,10 +17107,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="H439" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17097,10 +17133,10 @@
         <v>1376</v>
       </c>
       <c r="G440" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="H440" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17120,13 +17156,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="G441" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="H441" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17149,10 +17185,10 @@
         <v>1376</v>
       </c>
       <c r="G442" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="H442" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17175,10 +17211,10 @@
         <v>1347</v>
       </c>
       <c r="G443" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="H443" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17201,10 +17237,10 @@
         <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="H444" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17224,13 +17260,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="G445" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="H445" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17253,10 +17289,10 @@
         <v>1346</v>
       </c>
       <c r="G446" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="H446" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17279,10 +17315,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="H447" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17305,10 +17341,10 @@
         <v>1346</v>
       </c>
       <c r="G448" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="H448" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17331,10 +17367,10 @@
         <v>1339</v>
       </c>
       <c r="G449" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="H449" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17360,7 +17396,7 @@
         <v>968</v>
       </c>
       <c r="H450" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17386,7 +17422,7 @@
         <v>968</v>
       </c>
       <c r="H451" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17412,7 +17448,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17432,13 +17468,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="G453" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="H453" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17458,13 +17494,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="G454" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
       <c r="H454" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17484,13 +17520,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1372</v>
+        <v>1468</v>
       </c>
       <c r="G455" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="H455" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17510,13 +17546,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="G456" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
       <c r="H456" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17539,10 +17575,10 @@
         <v>1354</v>
       </c>
       <c r="G457" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="H457" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17568,7 +17604,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17588,13 +17624,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="G459" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="H459" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17620,7 +17656,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17640,13 +17676,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G461" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="H461" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17672,7 +17708,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17692,13 +17728,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="G463" t="s">
-        <v>1537</v>
+        <v>1753</v>
       </c>
       <c r="H463" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
     </row>
   </sheetData>
